--- a/embedded_hcl_on_ice_zero_water_to_hcl_saop.xlsx
+++ b/embedded_hcl_on_ice_zero_water_to_hcl_saop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D555B6F-4291-204E-A4D0-B612BC73ED89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7912905-E8BE-7346-A2CF-60E9B65ED3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="700" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
@@ -391,303 +391,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B3:R28"/>
+  <dimension ref="B4:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:R30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J4">
-        <v>193.42406009999999</v>
-      </c>
-      <c r="N4">
-        <v>193.46969110000001</v>
-      </c>
-      <c r="R4">
-        <v>191.78560189999999</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J5">
-        <v>193.3324121</v>
+        <v>193.42406009999999</v>
       </c>
       <c r="N5">
-        <v>193.50676849999999</v>
+        <v>193.46969110000001</v>
       </c>
       <c r="R5">
-        <v>191.82282330000001</v>
+        <v>191.78560189999999</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J6">
-        <v>193.7019062</v>
+        <v>193.3324121</v>
       </c>
       <c r="N6">
-        <v>193.54384590000001</v>
+        <v>193.50676849999999</v>
       </c>
       <c r="R6">
-        <v>191.86004460000001</v>
+        <v>191.82282330000001</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J7">
-        <v>192.51651369999999</v>
+        <v>193.7019062</v>
       </c>
       <c r="N7">
-        <v>193.5809232</v>
+        <v>193.54384590000001</v>
       </c>
       <c r="R7">
-        <v>191.897266</v>
+        <v>191.86004460000001</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J8">
-        <v>192.6024808</v>
+        <v>192.51651369999999</v>
       </c>
       <c r="N8">
-        <v>193.61800059999999</v>
+        <v>193.5809232</v>
       </c>
       <c r="R8">
-        <v>191.9344873</v>
+        <v>191.897266</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J9">
-        <v>193.10278869999999</v>
+        <v>192.6024808</v>
       </c>
       <c r="N9">
-        <v>193.65507790000001</v>
+        <v>193.61800059999999</v>
       </c>
       <c r="R9">
-        <v>191.97170869999999</v>
+        <v>191.9344873</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J10">
-        <v>193.08016069999999</v>
+        <v>193.10278869999999</v>
       </c>
       <c r="N10">
-        <v>193.6921553</v>
+        <v>193.65507790000001</v>
       </c>
       <c r="R10">
-        <v>192.00893009999999</v>
+        <v>191.97170869999999</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J11">
-        <v>192.7966639</v>
+        <v>193.08016069999999</v>
       </c>
       <c r="N11">
-        <v>193.72923259999999</v>
+        <v>193.6921553</v>
       </c>
       <c r="R11">
-        <v>192.04615140000001</v>
+        <v>192.00893009999999</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J12">
-        <v>193.47446289999999</v>
+        <v>192.7966639</v>
       </c>
       <c r="N12">
-        <v>193.76631</v>
+        <v>193.72923259999999</v>
       </c>
       <c r="R12">
-        <v>192.08337280000001</v>
+        <v>192.04615140000001</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J13">
-        <v>193.31075379999999</v>
+        <v>193.47446289999999</v>
       </c>
       <c r="N13">
-        <v>193.80338739999999</v>
+        <v>193.76631</v>
       </c>
       <c r="R13">
-        <v>192.1205942</v>
+        <v>192.08337280000001</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J14">
-        <v>192.8732535</v>
+        <v>193.31075379999999</v>
       </c>
       <c r="N14">
-        <v>193.84046470000001</v>
+        <v>193.80338739999999</v>
       </c>
       <c r="R14">
-        <v>192.1578155</v>
+        <v>192.1205942</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J15">
-        <v>193.35648979999999</v>
+        <v>192.8732535</v>
       </c>
       <c r="N15">
-        <v>193.8775421</v>
+        <v>193.84046470000001</v>
       </c>
       <c r="R15">
-        <v>192.19503689999999</v>
+        <v>192.1578155</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J16">
-        <v>192.2364737</v>
+        <v>193.35648979999999</v>
       </c>
       <c r="N16">
-        <v>193.91461939999999</v>
+        <v>193.8775421</v>
       </c>
       <c r="R16">
-        <v>192.23225830000001</v>
+        <v>192.19503689999999</v>
       </c>
     </row>
     <row r="17" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J17">
-        <v>193.55250570000001</v>
+        <v>192.2364737</v>
       </c>
       <c r="N17">
-        <v>193.95169680000001</v>
+        <v>193.91461939999999</v>
       </c>
       <c r="R17">
-        <v>192.26947960000001</v>
+        <v>192.23225830000001</v>
       </c>
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J18">
-        <v>192.63544669999999</v>
+        <v>193.55250570000001</v>
       </c>
       <c r="N18">
-        <v>193.9887741</v>
+        <v>193.95169680000001</v>
       </c>
       <c r="R18">
-        <v>192.306701</v>
+        <v>192.26947960000001</v>
       </c>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J19">
-        <v>193.25697349999999</v>
+        <v>192.63544669999999</v>
       </c>
       <c r="N19">
-        <v>194.02585149999999</v>
+        <v>193.9887741</v>
       </c>
       <c r="R19">
-        <v>192.3439223</v>
+        <v>192.306701</v>
       </c>
     </row>
     <row r="20" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J20">
-        <v>192.87802310000001</v>
+        <v>193.25697349999999</v>
       </c>
       <c r="N20">
-        <v>194.06292880000001</v>
+        <v>194.02585149999999</v>
       </c>
       <c r="R20">
-        <v>192.3811437</v>
+        <v>192.3439223</v>
       </c>
     </row>
     <row r="21" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J21">
-        <v>192.8756674</v>
+        <v>192.87802310000001</v>
       </c>
       <c r="N21">
-        <v>194.1000062</v>
+        <v>194.06292880000001</v>
       </c>
       <c r="R21">
-        <v>192.41836509999999</v>
+        <v>192.3811437</v>
       </c>
     </row>
     <row r="22" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J22">
-        <v>192.69849909999999</v>
+        <v>192.8756674</v>
       </c>
       <c r="N22">
-        <v>194.13708360000001</v>
+        <v>194.1000062</v>
       </c>
       <c r="R22">
-        <v>192.45558639999999</v>
+        <v>192.41836509999999</v>
       </c>
     </row>
     <row r="23" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J23">
-        <v>193.67497069999999</v>
+        <v>192.69849909999999</v>
       </c>
       <c r="N23">
-        <v>194.1741609</v>
+        <v>194.13708360000001</v>
       </c>
       <c r="R23">
-        <v>192.49280780000001</v>
+        <v>192.45558639999999</v>
       </c>
     </row>
     <row r="24" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J24">
-        <v>192.8732535</v>
+        <v>193.67497069999999</v>
       </c>
       <c r="N24">
-        <v>194.21123829999999</v>
+        <v>194.1741609</v>
       </c>
       <c r="R24">
-        <v>192.5300292</v>
+        <v>192.49280780000001</v>
       </c>
     </row>
     <row r="25" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J25">
-        <v>192.8502632</v>
+        <v>192.8732535</v>
       </c>
       <c r="N25">
-        <v>194.24831560000001</v>
+        <v>194.21123829999999</v>
       </c>
       <c r="R25">
-        <v>192.5672505</v>
+        <v>192.5300292</v>
       </c>
     </row>
     <row r="26" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J26">
-        <v>193.7146817</v>
+        <v>192.8502632</v>
       </c>
       <c r="N26">
-        <v>194.285393</v>
+        <v>194.24831560000001</v>
       </c>
       <c r="R26">
-        <v>192.60447189999999</v>
+        <v>192.5672505</v>
       </c>
     </row>
     <row r="27" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J27">
-        <v>192.54402060000001</v>
+        <v>193.7146817</v>
       </c>
       <c r="N27">
-        <v>194.32247029999999</v>
+        <v>194.285393</v>
       </c>
       <c r="R27">
-        <v>192.64169319999999</v>
+        <v>192.60447189999999</v>
       </c>
     </row>
     <row r="28" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J28">
+        <v>192.54402060000001</v>
+      </c>
+      <c r="N28">
+        <v>194.32247029999999</v>
+      </c>
+      <c r="R28">
+        <v>192.64169319999999</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J29">
         <v>192.72738029999999</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>194.35954770000001</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>192.67891460000001</v>
       </c>
     </row>

--- a/embedded_hcl_on_ice_zero_water_to_hcl_saop.xlsx
+++ b/embedded_hcl_on_ice_zero_water_to_hcl_saop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7912905-E8BE-7346-A2CF-60E9B65ED3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F1BF52-B590-FC47-9A7C-31851193B51A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="700" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
@@ -391,303 +391,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B4:R29"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
         <v>193.42406009999999</v>
       </c>
-      <c r="N5">
+      <c r="D5">
         <v>193.46969110000001</v>
       </c>
-      <c r="R5">
+      <c r="E5">
         <v>191.78560189999999</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6">
         <v>193.3324121</v>
       </c>
-      <c r="N6">
+      <c r="D6">
         <v>193.50676849999999</v>
       </c>
-      <c r="R6">
+      <c r="E6">
         <v>191.82282330000001</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7">
         <v>193.7019062</v>
       </c>
-      <c r="N7">
+      <c r="D7">
         <v>193.54384590000001</v>
       </c>
-      <c r="R7">
+      <c r="E7">
         <v>191.86004460000001</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8">
         <v>192.51651369999999</v>
       </c>
-      <c r="N8">
+      <c r="D8">
         <v>193.5809232</v>
       </c>
-      <c r="R8">
+      <c r="E8">
         <v>191.897266</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9">
         <v>192.6024808</v>
       </c>
-      <c r="N9">
+      <c r="D9">
         <v>193.61800059999999</v>
       </c>
-      <c r="R9">
+      <c r="E9">
         <v>191.9344873</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10">
         <v>193.10278869999999</v>
       </c>
-      <c r="N10">
+      <c r="D10">
         <v>193.65507790000001</v>
       </c>
-      <c r="R10">
+      <c r="E10">
         <v>191.97170869999999</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11">
         <v>193.08016069999999</v>
       </c>
-      <c r="N11">
+      <c r="D11">
         <v>193.6921553</v>
       </c>
-      <c r="R11">
+      <c r="E11">
         <v>192.00893009999999</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12">
         <v>192.7966639</v>
       </c>
-      <c r="N12">
+      <c r="D12">
         <v>193.72923259999999</v>
       </c>
-      <c r="R12">
+      <c r="E12">
         <v>192.04615140000001</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13">
         <v>193.47446289999999</v>
       </c>
-      <c r="N13">
+      <c r="D13">
         <v>193.76631</v>
       </c>
-      <c r="R13">
+      <c r="E13">
         <v>192.08337280000001</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14">
         <v>193.31075379999999</v>
       </c>
-      <c r="N14">
+      <c r="D14">
         <v>193.80338739999999</v>
       </c>
-      <c r="R14">
+      <c r="E14">
         <v>192.1205942</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15">
         <v>192.8732535</v>
       </c>
-      <c r="N15">
+      <c r="D15">
         <v>193.84046470000001</v>
       </c>
-      <c r="R15">
+      <c r="E15">
         <v>192.1578155</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16">
         <v>193.35648979999999</v>
       </c>
-      <c r="N16">
+      <c r="D16">
         <v>193.8775421</v>
       </c>
-      <c r="R16">
+      <c r="E16">
         <v>192.19503689999999</v>
       </c>
     </row>
-    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J17">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17">
         <v>192.2364737</v>
       </c>
-      <c r="N17">
+      <c r="D17">
         <v>193.91461939999999</v>
       </c>
-      <c r="R17">
+      <c r="E17">
         <v>192.23225830000001</v>
       </c>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J18">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18">
         <v>193.55250570000001</v>
       </c>
-      <c r="N18">
+      <c r="D18">
         <v>193.95169680000001</v>
       </c>
-      <c r="R18">
+      <c r="E18">
         <v>192.26947960000001</v>
       </c>
     </row>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J19">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19">
         <v>192.63544669999999</v>
       </c>
-      <c r="N19">
+      <c r="D19">
         <v>193.9887741</v>
       </c>
-      <c r="R19">
+      <c r="E19">
         <v>192.306701</v>
       </c>
     </row>
-    <row r="20" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J20">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20">
         <v>193.25697349999999</v>
       </c>
-      <c r="N20">
+      <c r="D20">
         <v>194.02585149999999</v>
       </c>
-      <c r="R20">
+      <c r="E20">
         <v>192.3439223</v>
       </c>
     </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J21">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21">
         <v>192.87802310000001</v>
       </c>
-      <c r="N21">
+      <c r="D21">
         <v>194.06292880000001</v>
       </c>
-      <c r="R21">
+      <c r="E21">
         <v>192.3811437</v>
       </c>
     </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J22">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22">
         <v>192.8756674</v>
       </c>
-      <c r="N22">
+      <c r="D22">
         <v>194.1000062</v>
       </c>
-      <c r="R22">
+      <c r="E22">
         <v>192.41836509999999</v>
       </c>
     </row>
-    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J23">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23">
         <v>192.69849909999999</v>
       </c>
-      <c r="N23">
+      <c r="D23">
         <v>194.13708360000001</v>
       </c>
-      <c r="R23">
+      <c r="E23">
         <v>192.45558639999999</v>
       </c>
     </row>
-    <row r="24" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J24">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24">
         <v>193.67497069999999</v>
       </c>
-      <c r="N24">
+      <c r="D24">
         <v>194.1741609</v>
       </c>
-      <c r="R24">
+      <c r="E24">
         <v>192.49280780000001</v>
       </c>
     </row>
-    <row r="25" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25">
         <v>192.8732535</v>
       </c>
-      <c r="N25">
+      <c r="D25">
         <v>194.21123829999999</v>
       </c>
-      <c r="R25">
+      <c r="E25">
         <v>192.5300292</v>
       </c>
     </row>
-    <row r="26" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J26">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26">
         <v>192.8502632</v>
       </c>
-      <c r="N26">
+      <c r="D26">
         <v>194.24831560000001</v>
       </c>
-      <c r="R26">
+      <c r="E26">
         <v>192.5672505</v>
       </c>
     </row>
-    <row r="27" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J27">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27">
         <v>193.7146817</v>
       </c>
-      <c r="N27">
+      <c r="D27">
         <v>194.285393</v>
       </c>
-      <c r="R27">
+      <c r="E27">
         <v>192.60447189999999</v>
       </c>
     </row>
-    <row r="28" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J28">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28">
         <v>192.54402060000001</v>
       </c>
-      <c r="N28">
+      <c r="D28">
         <v>194.32247029999999</v>
       </c>
-      <c r="R28">
+      <c r="E28">
         <v>192.64169319999999</v>
       </c>
     </row>
-    <row r="29" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J29">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29">
         <v>192.72738029999999</v>
       </c>
-      <c r="N29">
+      <c r="D29">
         <v>194.35954770000001</v>
       </c>
-      <c r="R29">
+      <c r="E29">
         <v>192.67891460000001</v>
       </c>
     </row>

--- a/embedded_hcl_on_ice_zero_water_to_hcl_saop.xlsx
+++ b/embedded_hcl_on_ice_zero_water_to_hcl_saop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F1BF52-B590-FC47-9A7C-31851193B51A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738EDEC-F7EA-4143-B6E3-6EA56C39CD4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="700" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="1460" yWindow="680" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A4:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,6 +417,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2764.7464439999999</v>
+      </c>
+      <c r="B5">
+        <v>254.11536570000001</v>
+      </c>
       <c r="C5">
         <v>193.42406009999999</v>
       </c>
@@ -428,6 +434,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2764.659913</v>
+      </c>
+      <c r="B6">
+        <v>254.02469859999999</v>
+      </c>
       <c r="C6">
         <v>193.3324121</v>
       </c>
@@ -439,6 +451,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2765.025901</v>
+      </c>
+      <c r="B7">
+        <v>254.39410430000001</v>
+      </c>
       <c r="C7">
         <v>193.7019062</v>
       </c>
@@ -450,6 +468,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2763.749433</v>
+      </c>
+      <c r="B8">
+        <v>253.122975</v>
+      </c>
       <c r="C8">
         <v>192.51651369999999</v>
       </c>
@@ -461,6 +485,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2763.913787</v>
+      </c>
+      <c r="B9">
+        <v>253.29511729999999</v>
+      </c>
       <c r="C9">
         <v>192.6024808</v>
       </c>
@@ -472,6 +502,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2764.4091469999998</v>
+      </c>
+      <c r="B10">
+        <v>253.7955671</v>
+      </c>
       <c r="C10">
         <v>193.10278869999999</v>
       </c>
@@ -483,6 +519,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2764.3899799999999</v>
+      </c>
+      <c r="B11">
+        <v>253.77290489999999</v>
+      </c>
       <c r="C11">
         <v>193.08016069999999</v>
       </c>
@@ -494,6 +536,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2764.140183</v>
+      </c>
+      <c r="B12">
+        <v>253.48848520000001</v>
+      </c>
       <c r="C12">
         <v>192.7966639</v>
       </c>
@@ -505,6 +553,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2764.7834509999998</v>
+      </c>
+      <c r="B13">
+        <v>254.1673768</v>
+      </c>
       <c r="C13">
         <v>193.47446289999999</v>
       </c>
@@ -516,6 +570,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2764.6191779999999</v>
+      </c>
+      <c r="B14">
+        <v>254.00346590000001</v>
+      </c>
       <c r="C14">
         <v>193.31075379999999</v>
       </c>
@@ -527,6 +587,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2764.188619</v>
+      </c>
+      <c r="B15">
+        <v>253.5656913</v>
+      </c>
       <c r="C15">
         <v>192.8732535</v>
       </c>
@@ -538,6 +604,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2764.6797499999998</v>
+      </c>
+      <c r="B16">
+        <v>254.04858150000001</v>
+      </c>
       <c r="C16">
         <v>193.35648979999999</v>
       </c>
@@ -548,7 +620,13 @@
         <v>192.19503689999999</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2763.5482889999998</v>
+      </c>
+      <c r="B17">
+        <v>252.929113</v>
+      </c>
       <c r="C17">
         <v>192.2364737</v>
       </c>
@@ -559,7 +637,13 @@
         <v>192.23225830000001</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2764.8275330000001</v>
+      </c>
+      <c r="B18">
+        <v>254.24934719999999</v>
+      </c>
       <c r="C18">
         <v>193.55250570000001</v>
       </c>
@@ -570,7 +654,13 @@
         <v>192.26947960000001</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2763.9527939999998</v>
+      </c>
+      <c r="B19">
+        <v>253.3279167</v>
+      </c>
       <c r="C19">
         <v>192.63544669999999</v>
       </c>
@@ -581,7 +671,13 @@
         <v>192.306701</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2764.608264</v>
+      </c>
+      <c r="B20">
+        <v>253.94857590000001</v>
+      </c>
       <c r="C20">
         <v>193.25697349999999</v>
       </c>
@@ -592,7 +688,13 @@
         <v>192.3439223</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2764.2085099999999</v>
+      </c>
+      <c r="B21">
+        <v>253.5700654</v>
+      </c>
       <c r="C21">
         <v>192.87802310000001</v>
       </c>
@@ -603,7 +705,13 @@
         <v>192.3811437</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2764.188118</v>
+      </c>
+      <c r="B22">
+        <v>253.56829569999999</v>
+      </c>
       <c r="C22">
         <v>192.8756674</v>
       </c>
@@ -614,7 +722,13 @@
         <v>192.41836509999999</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2764.0114480000002</v>
+      </c>
+      <c r="B23">
+        <v>253.3910453</v>
+      </c>
       <c r="C23">
         <v>192.69849909999999</v>
       </c>
@@ -625,7 +739,13 @@
         <v>192.45558639999999</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2764.9836150000001</v>
+      </c>
+      <c r="B24">
+        <v>254.3677314</v>
+      </c>
       <c r="C24">
         <v>193.67497069999999</v>
       </c>
@@ -636,7 +756,13 @@
         <v>192.49280780000001</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2764.188619</v>
+      </c>
+      <c r="B25">
+        <v>253.5656913</v>
+      </c>
       <c r="C25">
         <v>192.8732535</v>
       </c>
@@ -647,7 +773,13 @@
         <v>192.5300292</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2764.1734369999999</v>
+      </c>
+      <c r="B26">
+        <v>253.54255180000001</v>
+      </c>
       <c r="C26">
         <v>192.8502632</v>
       </c>
@@ -658,7 +790,13 @@
         <v>192.5672505</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2765.035085</v>
+      </c>
+      <c r="B27">
+        <v>254.40689459999999</v>
+      </c>
       <c r="C27">
         <v>193.7146817</v>
       </c>
@@ -669,7 +807,13 @@
         <v>192.60447189999999</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2763.8569160000002</v>
+      </c>
+      <c r="B28">
+        <v>253.23657969999999</v>
+      </c>
       <c r="C28">
         <v>192.54402060000001</v>
       </c>
@@ -680,7 +824,13 @@
         <v>192.64169319999999</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2764.034506</v>
+      </c>
+      <c r="B29">
+        <v>253.42018730000001</v>
+      </c>
       <c r="C29">
         <v>192.72738029999999</v>
       </c>
